--- a/BS_FILES/bank_movements/762759074449398_Cabo de hornos SPA.xlsx
+++ b/BS_FILES/bank_movements/762759074449398_Cabo de hornos SPA.xlsx
@@ -62103,24 +62103,31 @@
     <row r="892" spans="1:23">
       <c r="O892" s="2" t="inlineStr">
         <is>
-          <t>Boleta Electrónica Exenta</t>
-        </is>
-      </c>
-      <c r="Q892" s="2">
-        <v>0</v>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P892" s="2" t="inlineStr">
+        <is>
+          <t>10.986.336-K</t>
+        </is>
+      </c>
+      <c r="Q892" s="2" t="inlineStr">
+        <is>
+          <t>MATIAS MORENO</t>
+        </is>
       </c>
       <c r="R892" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="S892" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>7710</t>
         </is>
       </c>
       <c r="T892" s="2">
-        <v>50000</v>
+        <v>978360</v>
       </c>
       <c r="U892" s="2" t="inlineStr">
         <is>
@@ -62161,11 +62168,11 @@
       </c>
       <c r="S893" s="2" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>7711</t>
         </is>
       </c>
       <c r="T893" s="2">
-        <v>978360</v>
+        <v>57000</v>
       </c>
       <c r="U893" s="2" t="inlineStr">
         <is>
@@ -62186,35 +62193,35 @@
     <row r="894" spans="1:23">
       <c r="O894" s="2" t="inlineStr">
         <is>
-          <t>Boleta de Venta</t>
+          <t>Gasto Anticipado</t>
         </is>
       </c>
       <c r="P894" s="2" t="inlineStr">
         <is>
-          <t>10.986.336-K</t>
+          <t>76.275.907-1</t>
         </is>
       </c>
       <c r="Q894" s="2" t="inlineStr">
         <is>
-          <t>MATIAS MORENO</t>
+          <t>CABO DE HORNOS SPA</t>
         </is>
       </c>
       <c r="R894" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="S894" s="2" t="inlineStr">
         <is>
-          <t>7711</t>
+          <t>135</t>
         </is>
       </c>
       <c r="T894" s="2">
-        <v>57000</v>
+        <v>-3256</v>
       </c>
       <c r="U894" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Abono Transbank: Tarjetas de Débito</t>
         </is>
       </c>
       <c r="V894" s="2" t="inlineStr">
@@ -62231,35 +62238,35 @@
     <row r="895" spans="1:23">
       <c r="O895" s="2" t="inlineStr">
         <is>
-          <t>Gasto Anticipado</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="P895" s="2" t="inlineStr">
         <is>
-          <t>76.275.907-1</t>
+          <t>6.703.180-6</t>
         </is>
       </c>
       <c r="Q895" s="2" t="inlineStr">
         <is>
-          <t>CABO DE HORNOS SPA</t>
+          <t>CLAIRE SHES</t>
         </is>
       </c>
       <c r="R895" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="S895" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>7713</t>
         </is>
       </c>
       <c r="T895" s="2">
-        <v>-3256</v>
+        <v>131000</v>
       </c>
       <c r="U895" s="2" t="inlineStr">
         <is>
-          <t>Abono Transbank: Tarjetas de Débito</t>
+          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
         </is>
       </c>
       <c r="V895" s="2" t="inlineStr">
@@ -62281,12 +62288,12 @@
       </c>
       <c r="P896" s="2" t="inlineStr">
         <is>
-          <t>6.703.180-6</t>
+          <t>55.555.555-5</t>
         </is>
       </c>
       <c r="Q896" s="2" t="inlineStr">
         <is>
-          <t>CLAIRE SHES</t>
+          <t>CLIENTE EXTRANJERO</t>
         </is>
       </c>
       <c r="R896" s="2" t="inlineStr">
@@ -62296,11 +62303,11 @@
       </c>
       <c r="S896" s="2" t="inlineStr">
         <is>
-          <t>7713</t>
+          <t>7717</t>
         </is>
       </c>
       <c r="T896" s="2">
-        <v>131000</v>
+        <v>120000</v>
       </c>
       <c r="U896" s="2" t="inlineStr">
         <is>
@@ -62326,35 +62333,35 @@
       </c>
       <c r="P897" s="2" t="inlineStr">
         <is>
-          <t>55.555.555-5</t>
+          <t>26.583.888-K</t>
         </is>
       </c>
       <c r="Q897" s="2" t="inlineStr">
         <is>
-          <t>CLIENTE EXTRANJERO</t>
+          <t>ALEXANDRA  RODRIGUEZ</t>
         </is>
       </c>
       <c r="R897" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="S897" s="2" t="inlineStr">
         <is>
-          <t>7717</t>
+          <t>7765</t>
         </is>
       </c>
       <c r="T897" s="2">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="U897" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Boleta de Venta Electrónica #7765 emitida por CABO DE HORNOS SPA a ALEXANDRA  RODRIGUEZ por un monto total de 50.000</t>
         </is>
       </c>
       <c r="V897" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W897" s="2" t="inlineStr">
@@ -64467,28 +64474,30 @@
     <row r="928" spans="1:23">
       <c r="O928" s="2" t="inlineStr">
         <is>
-          <t>Boleta Electrónica Exenta</t>
-        </is>
-      </c>
-      <c r="Q928" s="2">
-        <v>0</v>
+          <t>Diferencia de Pago</t>
+        </is>
+      </c>
+      <c r="Q928" s="2" t="inlineStr">
+        <is>
+          <t>TRANSBANK S.A.</t>
+        </is>
       </c>
       <c r="R928" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="S928" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="T928" s="2">
-        <v>177630</v>
+        <v>1</v>
       </c>
       <c r="U928" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Diferencia de Pago de Abono de Transbank</t>
         </is>
       </c>
       <c r="V928" s="2" t="inlineStr">
@@ -64505,12 +64514,17 @@
     <row r="929" spans="1:23">
       <c r="O929" s="2" t="inlineStr">
         <is>
-          <t>Diferencia de Pago</t>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P929" s="2" t="inlineStr">
+        <is>
+          <t>10.696.718-0</t>
         </is>
       </c>
       <c r="Q929" s="2" t="inlineStr">
         <is>
-          <t>TRANSBANK S.A.</t>
+          <t>GHISLAINE MARCHETTI</t>
         </is>
       </c>
       <c r="R929" s="2" t="inlineStr">
@@ -64520,20 +64534,20 @@
       </c>
       <c r="S929" s="2" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="T929" s="2">
-        <v>1</v>
+        <v>177630</v>
       </c>
       <c r="U929" s="2" t="inlineStr">
         <is>
-          <t>Diferencia de Pago de Abono de Transbank</t>
+          <t>Boleta de Venta Electrónica #7732 emitida por CABO DE HORNOS SPA a GHISLAINE MARCHETTI por un monto total de 177.630</t>
         </is>
       </c>
       <c r="V929" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W929" s="2" t="inlineStr">
@@ -65179,20 +65193,27 @@
     <row r="940" spans="1:23">
       <c r="O940" s="2" t="inlineStr">
         <is>
-          <t>Boleta Electrónica Exenta</t>
-        </is>
-      </c>
-      <c r="Q940" s="2">
-        <v>0</v>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P940" s="2" t="inlineStr">
+        <is>
+          <t>26.583.888-K</t>
+        </is>
+      </c>
+      <c r="Q940" s="2" t="inlineStr">
+        <is>
+          <t>ALEXANDRA  RODRIGUEZ</t>
+        </is>
       </c>
       <c r="R940" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="S940" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>7741</t>
         </is>
       </c>
       <c r="T940" s="2">
@@ -65200,12 +65221,12 @@
       </c>
       <c r="U940" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Boleta de Venta Electrónica #7741 emitida por CABO DE HORNOS SPA a ALEXANDRA  RODRIGUEZ por un monto total de 14.000</t>
         </is>
       </c>
       <c r="V940" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W940" s="2" t="inlineStr">
@@ -67072,7 +67093,7 @@
       </c>
       <c r="S966" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>174</t>
         </is>
       </c>
       <c r="T966" s="2">
@@ -67085,7 +67106,7 @@
       </c>
       <c r="V966" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W966" s="2" t="inlineStr">
@@ -67130,7 +67151,7 @@
       </c>
       <c r="V967" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W967" s="2" t="inlineStr">
@@ -67175,7 +67196,7 @@
       </c>
       <c r="V968" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W968" s="2" t="inlineStr">
@@ -67220,7 +67241,7 @@
       </c>
       <c r="V969" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W969" s="2" t="inlineStr">
@@ -67252,7 +67273,7 @@
       </c>
       <c r="S970" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>175</t>
         </is>
       </c>
       <c r="T970" s="2">
@@ -67265,7 +67286,7 @@
       </c>
       <c r="V970" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W970" s="2" t="inlineStr">
@@ -67310,7 +67331,7 @@
       </c>
       <c r="V971" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W971" s="2" t="inlineStr">
@@ -67342,20 +67363,20 @@
       </c>
       <c r="S972" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>176</t>
         </is>
       </c>
       <c r="T972" s="2">
-        <v>-25275</v>
+        <v>-27018</v>
       </c>
       <c r="U972" s="2" t="inlineStr">
         <is>
-          <t>Abono Transbank: Tarjetas de Débito</t>
+          <t>Abono Transbank: Tarjetas de Crédito</t>
         </is>
       </c>
       <c r="V972" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W972" s="2" t="inlineStr">
@@ -67372,35 +67393,35 @@
       </c>
       <c r="P973" s="2" t="inlineStr">
         <is>
-          <t>66.666.666-6</t>
+          <t>6.379.678-6</t>
         </is>
       </c>
       <c r="Q973" s="2" t="inlineStr">
         <is>
-          <t>KATRIN EBEN</t>
+          <t>VICTOR HIRMAS</t>
         </is>
       </c>
       <c r="R973" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="S973" s="2" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>7733</t>
         </is>
       </c>
       <c r="T973" s="2">
-        <v>80000</v>
+        <v>228000</v>
       </c>
       <c r="U973" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
         </is>
       </c>
       <c r="V973" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W973" s="2" t="inlineStr">
@@ -67412,40 +67433,40 @@
     <row r="974" spans="1:23">
       <c r="O974" s="2" t="inlineStr">
         <is>
-          <t>Factura de Venta</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="P974" s="2" t="inlineStr">
         <is>
-          <t>77.869.038-1</t>
+          <t>6.371.875-0</t>
         </is>
       </c>
       <c r="Q974" s="2" t="inlineStr">
         <is>
-          <t>LEGRIA CUATRO SPA</t>
+          <t>CHRISTOPH  SCHIESS</t>
         </is>
       </c>
       <c r="R974" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="S974" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>7734</t>
         </is>
       </c>
       <c r="T974" s="2">
-        <v>956040</v>
+        <v>352000</v>
       </c>
       <c r="U974" s="2" t="inlineStr">
         <is>
-          <t>Factura Electrónica de Venta #1141 emitida por CABO DE HORNOS SPA a LEGRIA CUATRO SPA por un monto total de 956.040</t>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
         </is>
       </c>
       <c r="V974" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W974" s="2" t="inlineStr">
@@ -67457,40 +67478,40 @@
     <row r="975" spans="1:23">
       <c r="O975" s="2" t="inlineStr">
         <is>
-          <t>Gasto Anticipado</t>
+          <t>Boleta de Venta</t>
         </is>
       </c>
       <c r="P975" s="2" t="inlineStr">
         <is>
-          <t>76.275.907-1</t>
+          <t>6.371.875-0</t>
         </is>
       </c>
       <c r="Q975" s="2" t="inlineStr">
         <is>
-          <t>CABO DE HORNOS SPA</t>
+          <t>CHRISTOPH  SCHIESS</t>
         </is>
       </c>
       <c r="R975" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="S975" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>7735</t>
         </is>
       </c>
       <c r="T975" s="2">
-        <v>-27018</v>
+        <v>70000</v>
       </c>
       <c r="U975" s="2" t="inlineStr">
         <is>
-          <t>Abono Transbank: Tarjetas de Crédito</t>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
         </is>
       </c>
       <c r="V975" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W975" s="2" t="inlineStr">
@@ -67507,12 +67528,12 @@
       </c>
       <c r="P976" s="2" t="inlineStr">
         <is>
-          <t>6.371.875-0</t>
+          <t>10.160.656-2</t>
         </is>
       </c>
       <c r="Q976" s="2" t="inlineStr">
         <is>
-          <t>CHRISTOPH  SCHIESS</t>
+          <t>CECILIA VILLAMAN</t>
         </is>
       </c>
       <c r="R976" s="2" t="inlineStr">
@@ -67522,11 +67543,11 @@
       </c>
       <c r="S976" s="2" t="inlineStr">
         <is>
-          <t>7734</t>
+          <t>7736</t>
         </is>
       </c>
       <c r="T976" s="2">
-        <v>352000</v>
+        <v>65000</v>
       </c>
       <c r="U976" s="2" t="inlineStr">
         <is>
@@ -67535,7 +67556,7 @@
       </c>
       <c r="V976" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W976" s="2" t="inlineStr">
@@ -67552,35 +67573,35 @@
       </c>
       <c r="P977" s="2" t="inlineStr">
         <is>
-          <t>6.379.678-6</t>
+          <t>18.024.333-K</t>
         </is>
       </c>
       <c r="Q977" s="2" t="inlineStr">
         <is>
-          <t>VICTOR HIRMAS</t>
+          <t>IGNACIO MACKENNEY</t>
         </is>
       </c>
       <c r="R977" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="S977" s="2" t="inlineStr">
         <is>
-          <t>7733</t>
+          <t>7737</t>
         </is>
       </c>
       <c r="T977" s="2">
-        <v>228000</v>
+        <v>76990</v>
       </c>
       <c r="U977" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 47344385 - CABO DE HORNOS VITACURA</t>
         </is>
       </c>
       <c r="V977" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W977" s="2" t="inlineStr">
@@ -67597,35 +67618,35 @@
       </c>
       <c r="P978" s="2" t="inlineStr">
         <is>
-          <t>6.371.875-0</t>
+          <t>66.666.666-6</t>
         </is>
       </c>
       <c r="Q978" s="2" t="inlineStr">
         <is>
-          <t>CHRISTOPH  SCHIESS</t>
+          <t>ALEXANDRA  RODRIGUEZ</t>
         </is>
       </c>
       <c r="R978" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="S978" s="2" t="inlineStr">
         <is>
-          <t>7735</t>
+          <t>7772</t>
         </is>
       </c>
       <c r="T978" s="2">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="U978" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Boleta de Venta Electrónica #7772 emitida por CABO DE HORNOS SPA a ALEXANDRA  RODRIGUEZ por un monto total de 100.000</t>
         </is>
       </c>
       <c r="V978" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W978" s="2" t="inlineStr">
@@ -67642,35 +67663,35 @@
       </c>
       <c r="P979" s="2" t="inlineStr">
         <is>
-          <t>10.160.656-2</t>
+          <t>55.555.555-5</t>
         </is>
       </c>
       <c r="Q979" s="2" t="inlineStr">
         <is>
-          <t>CECILIA VILLAMAN</t>
+          <t>CLIENTE EXTRANJERO</t>
         </is>
       </c>
       <c r="R979" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="S979" s="2" t="inlineStr">
         <is>
-          <t>7736</t>
+          <t>7762</t>
         </is>
       </c>
       <c r="T979" s="2">
-        <v>65000</v>
+        <v>598000</v>
       </c>
       <c r="U979" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Boleta de Venta Electrónica #7762 emitida por CABO DE HORNOS SPA a CLIENTE EXTRANJERO por un monto total de 598.000</t>
         </is>
       </c>
       <c r="V979" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W979" s="2" t="inlineStr">
@@ -67682,33 +67703,40 @@
     <row r="980" spans="1:23">
       <c r="O980" s="2" t="inlineStr">
         <is>
-          <t>Boleta Electrónica Exenta</t>
-        </is>
-      </c>
-      <c r="Q980" s="2">
-        <v>0</v>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P980" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q980" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
       </c>
       <c r="R980" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="S980" s="2" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>177</t>
         </is>
       </c>
       <c r="T980" s="2">
-        <v>598000</v>
+        <v>-25275</v>
       </c>
       <c r="U980" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Abono Transbank: Tarjetas de Débito</t>
         </is>
       </c>
       <c r="V980" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W980" s="2" t="inlineStr">
@@ -67720,33 +67748,40 @@
     <row r="981" spans="1:23">
       <c r="O981" s="2" t="inlineStr">
         <is>
-          <t>Boleta Electrónica Exenta</t>
-        </is>
-      </c>
-      <c r="Q981" s="2">
-        <v>0</v>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P981" s="2" t="inlineStr">
+        <is>
+          <t>77.869.038-1</t>
+        </is>
+      </c>
+      <c r="Q981" s="2" t="inlineStr">
+        <is>
+          <t>LEGRIA CUATRO SPA</t>
+        </is>
       </c>
       <c r="R981" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="S981" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="T981" s="2">
-        <v>100000</v>
+        <v>956040</v>
       </c>
       <c r="U981" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
         </is>
       </c>
       <c r="V981" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W981" s="2" t="inlineStr">
@@ -67763,35 +67798,35 @@
       </c>
       <c r="P982" s="2" t="inlineStr">
         <is>
-          <t>18.024.333-K</t>
+          <t>66.666.666-6</t>
         </is>
       </c>
       <c r="Q982" s="2" t="inlineStr">
         <is>
-          <t>IGNACIO MACKENNEY</t>
+          <t>KATRIN EBEN</t>
         </is>
       </c>
       <c r="R982" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="S982" s="2" t="inlineStr">
         <is>
-          <t>7737</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="T982" s="2">
-        <v>76990</v>
+        <v>80000</v>
       </c>
       <c r="U982" s="2" t="inlineStr">
         <is>
-          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 47344385 - CABO DE HORNOS VITACURA</t>
+          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
         </is>
       </c>
       <c r="V982" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="W982" s="2" t="inlineStr">
@@ -78605,7 +78640,7 @@
       </c>
       <c r="G1137" s="2" t="inlineStr">
         <is>
-          <t>TRANSFERENCIA OTRO BANCO A RUT 99520000-7 COPEC S A</t>
+          <t>Transferencia otro banco a rut 99520000-7 copec s a</t>
         </is>
       </c>
       <c r="H1137" s="2" t="inlineStr">
@@ -79279,7 +79314,7 @@
       </c>
       <c r="G1149" s="2" t="inlineStr">
         <is>
-          <t>TRANSFERENCIA OTRO BANCO A RUT 10392501-0 JOTTAR AWAD MARIA CECILIA</t>
+          <t>Transferencia otro banco a rut 10392501-0 jottar awad maria cecilia</t>
         </is>
       </c>
       <c r="H1149" s="2" t="inlineStr">
@@ -79310,7 +79345,45 @@
       </c>
       <c r="O1149" s="2" t="inlineStr">
         <is>
-          <t>Sin Match</t>
+          <t>Boleta de Honorarios</t>
+        </is>
+      </c>
+      <c r="P1149" s="2" t="inlineStr">
+        <is>
+          <t>10.392.501-0</t>
+        </is>
+      </c>
+      <c r="Q1149" s="2" t="inlineStr">
+        <is>
+          <t>MARIA CECILIA JOTTAR AWAD</t>
+        </is>
+      </c>
+      <c r="R1149" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="S1149" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="T1149" s="2">
+        <v>200000</v>
+      </c>
+      <c r="U1149" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios Electrónica #44 emitida por MARIA CECILIA JOTTAR AWAD a  CABO DE HORNOS SPA por un monto total de 500.000</t>
+        </is>
+      </c>
+      <c r="V1149" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1149" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
         </is>
       </c>
     </row>
@@ -79444,7 +79517,7 @@
       </c>
       <c r="G1151" s="2" t="inlineStr">
         <is>
-          <t>TRANSFERENCIA OTRO BANCO A RUT 21369446-4 DONOSO ACOSTA ANDRES IGNACIO</t>
+          <t>Transferencia otro banco a rut 21369446-4 donoso acosta andres ignacio</t>
         </is>
       </c>
       <c r="H1151" s="2" t="inlineStr">
@@ -79510,7 +79583,7 @@
       </c>
       <c r="G1152" s="2" t="inlineStr">
         <is>
-          <t>COMPRA EN COMPRA EASY LA DEHE CL</t>
+          <t>Compra en compra easy la dehe cl</t>
         </is>
       </c>
       <c r="H1152" s="2" t="inlineStr">
@@ -79526,7 +79599,5053 @@
       </c>
       <c r="O1152" s="2" t="inlineStr">
         <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1152" s="2" t="inlineStr">
+        <is>
+          <t>76.568.660-1</t>
+        </is>
+      </c>
+      <c r="Q1152" s="2" t="inlineStr">
+        <is>
+          <t>EASY RETAIL S.A.</t>
+        </is>
+      </c>
+      <c r="R1152" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="S1152" s="2" t="inlineStr">
+        <is>
+          <t>33546256</t>
+        </is>
+      </c>
+      <c r="T1152" s="2">
+        <v>97410</v>
+      </c>
+      <c r="U1152" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #33546256 emitida por EASY RETAIL S.A. a CABO DE HORNOS SPA por un monto total de 97.410</t>
+        </is>
+      </c>
+      <c r="V1152" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="W1152" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153" spans="1:23">
+      <c r="A1153" s="2">
+        <v>636</v>
+      </c>
+      <c r="B1153" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1153" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1153" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1153" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1153" s="2" t="inlineStr">
+        <is>
+          <t>STGO. VITACURA</t>
+        </is>
+      </c>
+      <c r="G1153" s="2" t="inlineStr">
+        <is>
+          <t>IMPUESTO LINEA DE CREDITO</t>
+        </is>
+      </c>
+      <c r="H1153" s="2" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="L1153" s="2">
+        <v>446</v>
+      </c>
+      <c r="M1153" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1153" s="2" t="inlineStr">
+        <is>
+          <t>Impuesto timbre y estampilla</t>
+        </is>
+      </c>
+      <c r="P1153" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1153" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1153" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1153" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T1153" s="2">
+        <v>446</v>
+      </c>
+      <c r="U1153" s="2" t="inlineStr">
+        <is>
+          <t>Impuesto timbre y estampilla para el crédito #1 cuota Nº 1 emitida por CABO DE HORNOS SPA a CABO DE HORNOS SPA por un monto total de 446</t>
+        </is>
+      </c>
+      <c r="V1153" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1153" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154" spans="1:23">
+      <c r="A1154" s="2">
+        <v>637</v>
+      </c>
+      <c r="B1154" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1154" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1154" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1154" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1154" s="2" t="inlineStr">
+        <is>
+          <t>STGO. VITACURA</t>
+        </is>
+      </c>
+      <c r="G1154" s="2" t="inlineStr">
+        <is>
+          <t>INTERESES LINEA DE CREDITO</t>
+        </is>
+      </c>
+      <c r="H1154" s="2" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="L1154" s="2">
+        <v>1433</v>
+      </c>
+      <c r="M1154" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1154" s="2" t="inlineStr">
+        <is>
+          <t>Intereses Financieros</t>
+        </is>
+      </c>
+      <c r="R1154" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1154" s="2" t="inlineStr">
+        <is>
+          <t>202411</t>
+        </is>
+      </c>
+      <c r="T1154" s="2">
+        <v>1433</v>
+      </c>
+      <c r="V1154" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1154" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155" spans="1:23">
+      <c r="A1155" s="2">
+        <v>638</v>
+      </c>
+      <c r="B1155" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1155" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1155" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1155" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1155" s="2" t="inlineStr">
+        <is>
+          <t>STGO. VITACURA</t>
+        </is>
+      </c>
+      <c r="G1155" s="2" t="inlineStr">
+        <is>
+          <t>INTERESES POR SOBREGIRO EN CTA CTE</t>
+        </is>
+      </c>
+      <c r="H1155" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="L1155" s="2">
+        <v>6511</v>
+      </c>
+      <c r="M1155" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1155" s="2" t="inlineStr">
+        <is>
+          <t>Intereses Financieros</t>
+        </is>
+      </c>
+      <c r="R1155" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1155" s="2" t="inlineStr">
+        <is>
+          <t>202411</t>
+        </is>
+      </c>
+      <c r="T1155" s="2">
+        <v>6511</v>
+      </c>
+      <c r="V1155" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1155" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156" spans="1:23">
+      <c r="A1156" s="2">
+        <v>639</v>
+      </c>
+      <c r="B1156" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1156" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1156" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1156" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1156" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1156" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA BANCOESTADO A RUT 22952942-0 NINAQUISPE MERCADO VERONICA RAQUEL</t>
+        </is>
+      </c>
+      <c r="H1156" s="2" t="inlineStr">
+        <is>
+          <t>7011316</t>
+        </is>
+      </c>
+      <c r="I1156" s="2" t="inlineStr">
+        <is>
+          <t>22952942-0 VERONICA NINAQUISPE MERCADO</t>
+        </is>
+      </c>
+      <c r="J1156" s="2" t="inlineStr">
+        <is>
+          <t>Sueldo octubre VN</t>
+        </is>
+      </c>
+      <c r="K1156" s="2" t="inlineStr">
+        <is>
+          <t>BANCO DEL ESTADO DE CHILE 22952942</t>
+        </is>
+      </c>
+      <c r="L1156" s="2">
+        <v>100002</v>
+      </c>
+      <c r="M1156" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1156" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos</t>
+        </is>
+      </c>
+      <c r="R1156" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="S1156" s="2" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="T1156" s="2">
+        <v>100002</v>
+      </c>
+      <c r="U1156" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos Nómina Remuneración Líquida de Personal</t>
+        </is>
+      </c>
+      <c r="V1156" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1156" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157" spans="1:23">
+      <c r="A1157" s="2">
+        <v>640</v>
+      </c>
+      <c r="B1157" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1157" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1157" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1157" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1157" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1157" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76924542-1 TALLER DE CONFECCIONES Y TAPICERIA ANTONIA ABARZUA</t>
+        </is>
+      </c>
+      <c r="H1157" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1157" s="2">
+        <v>213129</v>
+      </c>
+      <c r="M1157" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1157" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1157" s="2" t="inlineStr">
+        <is>
+          <t>76.924.542-1</t>
+        </is>
+      </c>
+      <c r="Q1157" s="2" t="inlineStr">
+        <is>
+          <t>TALLER DE CONFECCIONES Y TAPICERÍA ANTONIA ABARZUA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="R1157" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="S1157" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="T1157" s="2">
+        <v>213129</v>
+      </c>
+      <c r="U1157" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #528 emitida por TALLER DE CONFECCIONES Y TAPICERÍA ANTONIA ABARZUA E.I.R.L. a CABO DE HORNOS SPA por un monto total de 213.129</t>
+        </is>
+      </c>
+      <c r="V1157" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1157" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158" spans="1:23">
+      <c r="A1158" s="2">
+        <v>641</v>
+      </c>
+      <c r="B1158" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1158" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1158" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1158" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1158" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1158" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76081735-K LAVANDERIA</t>
+        </is>
+      </c>
+      <c r="H1158" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1158" s="2">
+        <v>28560</v>
+      </c>
+      <c r="M1158" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1158" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1158" s="2" t="inlineStr">
+        <is>
+          <t>76.081.735-K</t>
+        </is>
+      </c>
+      <c r="Q1158" s="2" t="inlineStr">
+        <is>
+          <t>EVERSEC SPA</t>
+        </is>
+      </c>
+      <c r="R1158" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="S1158" s="2" t="inlineStr">
+        <is>
+          <t>6412</t>
+        </is>
+      </c>
+      <c r="T1158" s="2">
+        <v>28560</v>
+      </c>
+      <c r="U1158" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #6412 emitida por EVERSEC SPA a CABO DE HORNOS SPA por un monto total de 28.560</t>
+        </is>
+      </c>
+      <c r="V1158" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1158" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159" spans="1:23">
+      <c r="A1159" s="2">
+        <v>642</v>
+      </c>
+      <c r="B1159" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1159" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1159" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1159" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1159" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1159" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76924542-1 TALLER DE CONFECCIONES Y TAPICERIA ANTONIA ABARZUA</t>
+        </is>
+      </c>
+      <c r="H1159" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1159" s="2">
+        <v>862155</v>
+      </c>
+      <c r="M1159" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1159" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1159" s="2" t="inlineStr">
+        <is>
+          <t>76.924.542-1</t>
+        </is>
+      </c>
+      <c r="Q1159" s="2" t="inlineStr">
+        <is>
+          <t>TALLER DE CONFECCIONES Y TAPICERÃA ANTONIA ABARZUA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="R1159" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="S1159" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="T1159" s="2">
+        <v>862155</v>
+      </c>
+      <c r="U1159" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #529 emitida por TALLER DE CONFECCIONES Y TAPICERÃA ANTONIA ABARZUA E.I.R.L. a CABO DE HORNOS SPA por un monto total de 862.155</t>
+        </is>
+      </c>
+      <c r="V1159" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1159" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160" spans="1:23">
+      <c r="A1160" s="2">
+        <v>643</v>
+      </c>
+      <c r="B1160" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1160" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1160" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1160" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1160" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1160" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76924542-1 TALLER DE CONFECCIONES Y TAPICERIA ANTONIA ABARZUA</t>
+        </is>
+      </c>
+      <c r="H1160" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1160" s="2">
+        <v>822528</v>
+      </c>
+      <c r="M1160" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1160" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1160" s="2" t="inlineStr">
+        <is>
+          <t>76.924.542-1</t>
+        </is>
+      </c>
+      <c r="Q1160" s="2" t="inlineStr">
+        <is>
+          <t>TALLER DE CONFECCIONES Y TAPICERÃA ANTONIA ABARZUA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="R1160" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="S1160" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="T1160" s="2">
+        <v>822528</v>
+      </c>
+      <c r="U1160" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #530 emitida por TALLER DE CONFECCIONES Y TAPICERÃA ANTONIA ABARZUA E.I.R.L. a CABO DE HORNOS SPA por un monto total de 822.528</t>
+        </is>
+      </c>
+      <c r="V1160" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1160" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161" spans="1:23">
+      <c r="A1161" s="2">
+        <v>644</v>
+      </c>
+      <c r="B1161" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1161" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1161" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1161" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1161" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1161" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 77964808-7</t>
+        </is>
+      </c>
+      <c r="H1161" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1161" s="2">
+        <v>607424</v>
+      </c>
+      <c r="M1161" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1161" s="2" t="inlineStr">
+        <is>
+          <t>Factura Exenta</t>
+        </is>
+      </c>
+      <c r="P1161" s="2" t="inlineStr">
+        <is>
+          <t>77.964.808-7</t>
+        </is>
+      </c>
+      <c r="Q1161" s="2" t="inlineStr">
+        <is>
+          <t>SERVICIOS DE DISEÑO Y FOTOGRAFÍA LAS PICHAS LIMITADA</t>
+        </is>
+      </c>
+      <c r="R1161" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="S1161" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="T1161" s="2">
+        <v>607424</v>
+      </c>
+      <c r="U1161" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica Exenta #35 emitida por SERVICIOS DE DISEÑO Y FOTOGRAFÍA LAS PICHAS LIMITADA a CABO DE HORNOS SPA por un monto total de 607.424</t>
+        </is>
+      </c>
+      <c r="V1161" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1161" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162" spans="1:23">
+      <c r="A1162" s="2">
+        <v>645</v>
+      </c>
+      <c r="B1162" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1162" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1162" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1162" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1162" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1162" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76029927-8 ETIQUETAS ZALAQUETT CHILE SA</t>
+        </is>
+      </c>
+      <c r="H1162" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1162" s="2">
+        <v>1526937</v>
+      </c>
+      <c r="M1162" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1162" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1162" s="2" t="inlineStr">
+        <is>
+          <t>76.029.927-8</t>
+        </is>
+      </c>
+      <c r="Q1162" s="2" t="inlineStr">
+        <is>
+          <t>ETIQUETAS ZALAQUETT CHILE S.A</t>
+        </is>
+      </c>
+      <c r="R1162" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="S1162" s="2" t="inlineStr">
+        <is>
+          <t>52194</t>
+        </is>
+      </c>
+      <c r="T1162" s="2">
+        <v>1526937</v>
+      </c>
+      <c r="U1162" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #52194 emitida por ETIQUETAS ZALAQUETT CHILE S.A a CABO DE HORNOS SPA por un monto total de 1.526.937</t>
+        </is>
+      </c>
+      <c r="V1162" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1162" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163" spans="1:23">
+      <c r="A1163" s="2">
+        <v>646</v>
+      </c>
+      <c r="B1163" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1163" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1163" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1163" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1163" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1163" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76058647-1 VERISURE CHILE SPA</t>
+        </is>
+      </c>
+      <c r="H1163" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1163" s="2">
+        <v>66323</v>
+      </c>
+      <c r="M1163" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1163" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1163" s="2" t="inlineStr">
+        <is>
+          <t>76.058.647-1</t>
+        </is>
+      </c>
+      <c r="Q1163" s="2" t="inlineStr">
+        <is>
+          <t>VERISURE CHILE SPA</t>
+        </is>
+      </c>
+      <c r="R1163" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="S1163" s="2" t="inlineStr">
+        <is>
+          <t>9565394</t>
+        </is>
+      </c>
+      <c r="T1163" s="2">
+        <v>66323</v>
+      </c>
+      <c r="U1163" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #9565394 emitida por VERISURE CHILE SPA a CABO DE HORNOS SPA por un monto total de 66.323</t>
+        </is>
+      </c>
+      <c r="V1163" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1163" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164" spans="1:23">
+      <c r="A1164" s="2">
+        <v>647</v>
+      </c>
+      <c r="B1164" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1164" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1164" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1164" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1164" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1164" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 77186376-0</t>
+        </is>
+      </c>
+      <c r="H1164" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1164" s="2">
+        <v>142800</v>
+      </c>
+      <c r="M1164" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1164" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1164" s="2" t="inlineStr">
+        <is>
+          <t>77.186.376-0</t>
+        </is>
+      </c>
+      <c r="Q1164" s="2" t="inlineStr">
+        <is>
+          <t>Monkey SPA</t>
+        </is>
+      </c>
+      <c r="R1164" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="S1164" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="T1164" s="2">
+        <v>142800</v>
+      </c>
+      <c r="U1164" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #728 emitida por Monkey SPA a CABO DE HORNOS SPA por un monto total de 142.800</t>
+        </is>
+      </c>
+      <c r="V1164" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1164" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165" spans="1:23">
+      <c r="A1165" s="2">
+        <v>648</v>
+      </c>
+      <c r="B1165" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1165" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1165" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1165" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1165" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1165" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 77604901-8 INTEC SPA</t>
+        </is>
+      </c>
+      <c r="H1165" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1165" s="2">
+        <v>676701</v>
+      </c>
+      <c r="M1165" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1165" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1165" s="2" t="inlineStr">
+        <is>
+          <t>77.604.901-8</t>
+        </is>
+      </c>
+      <c r="Q1165" s="2" t="inlineStr">
+        <is>
+          <t>INTEC SPA</t>
+        </is>
+      </c>
+      <c r="R1165" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="S1165" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="T1165" s="2">
+        <v>676701</v>
+      </c>
+      <c r="U1165" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #371 emitida por INTEC SPA a CABO DE HORNOS SPA por un monto total de 676.701</t>
+        </is>
+      </c>
+      <c r="V1165" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1165" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166" spans="1:23">
+      <c r="A1166" s="2">
+        <v>649</v>
+      </c>
+      <c r="B1166" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1166" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1166" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1166" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1166" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1166" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76593785-K CONTAMANAGER ASESORIAS SPA</t>
+        </is>
+      </c>
+      <c r="H1166" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1166" s="2">
+        <v>1253421</v>
+      </c>
+      <c r="M1166" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1166" s="2" t="inlineStr">
+        <is>
+          <t>Factura Exenta</t>
+        </is>
+      </c>
+      <c r="P1166" s="2" t="inlineStr">
+        <is>
+          <t>77.686.859-0</t>
+        </is>
+      </c>
+      <c r="Q1166" s="2" t="inlineStr">
+        <is>
+          <t>CONTAMANAGER GESTION EMPRESAS LIMITADA</t>
+        </is>
+      </c>
+      <c r="R1166" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="S1166" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="T1166" s="2">
+        <v>1253421</v>
+      </c>
+      <c r="U1166" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica Exenta #655 emitida por CONTAMANAGER GESTION EMPRESAS LIMITADA a CABO DE HORNOS SPA por un monto total de 1.253.421</t>
+        </is>
+      </c>
+      <c r="V1166" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1166" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167" spans="1:23">
+      <c r="A1167" s="2">
+        <v>650</v>
+      </c>
+      <c r="B1167" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1167" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1167" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1167" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1167" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1167" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76833750-0 PAR CUATRO SA</t>
+        </is>
+      </c>
+      <c r="H1167" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1167" s="2">
+        <v>51865</v>
+      </c>
+      <c r="M1167" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1167" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1167" s="2" t="inlineStr">
+        <is>
+          <t>76.833.750-0</t>
+        </is>
+      </c>
+      <c r="Q1167" s="2" t="inlineStr">
+        <is>
+          <t>PAR CUATRO S.A</t>
+        </is>
+      </c>
+      <c r="R1167" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="S1167" s="2" t="inlineStr">
+        <is>
+          <t>177406</t>
+        </is>
+      </c>
+      <c r="T1167" s="2">
+        <v>51865</v>
+      </c>
+      <c r="U1167" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #177406 emitida por PAR CUATRO S.A a CABO DE HORNOS SPA por un monto total de 51.865</t>
+        </is>
+      </c>
+      <c r="V1167" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1167" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168" spans="1:23">
+      <c r="A1168" s="2">
+        <v>651</v>
+      </c>
+      <c r="B1168" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1168" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1168" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1168" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1168" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1168" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76218214-9 MARIA JOSEFINA DUCH DISENO Y DECORACION EIRL</t>
+        </is>
+      </c>
+      <c r="H1168" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1168" s="2">
+        <v>70252</v>
+      </c>
+      <c r="M1168" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1168" s="2" t="inlineStr">
+        <is>
+          <t>Factura Exenta</t>
+        </is>
+      </c>
+      <c r="P1168" s="2" t="inlineStr">
+        <is>
+          <t>76.261.317-4</t>
+        </is>
+      </c>
+      <c r="Q1168" s="2" t="inlineStr">
+        <is>
+          <t>MARIA JOSEFINA DUCH DISENO INTEGRAL LTDA.</t>
+        </is>
+      </c>
+      <c r="R1168" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="S1168" s="2" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="T1168" s="2">
+        <v>70252</v>
+      </c>
+      <c r="U1168" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica Exenta #1405 emitida por MARIA JOSEFINA DUCH DISENO INTEGRAL LTDA. a CABO DE HORNOS SPA por un monto total de 70.252</t>
+        </is>
+      </c>
+      <c r="V1168" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1168" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169" spans="1:23">
+      <c r="A1169" s="2">
+        <v>652</v>
+      </c>
+      <c r="B1169" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1169" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1169" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1169" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1169" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1169" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76833750-0 PAR CUATRO SA</t>
+        </is>
+      </c>
+      <c r="H1169" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1169" s="2">
+        <v>51958</v>
+      </c>
+      <c r="M1169" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1169" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1169" s="2" t="inlineStr">
+        <is>
+          <t>76.833.750-0</t>
+        </is>
+      </c>
+      <c r="Q1169" s="2" t="inlineStr">
+        <is>
+          <t>PAR CUATRO S.A</t>
+        </is>
+      </c>
+      <c r="R1169" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="S1169" s="2" t="inlineStr">
+        <is>
+          <t>178695</t>
+        </is>
+      </c>
+      <c r="T1169" s="2">
+        <v>51958</v>
+      </c>
+      <c r="U1169" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #178695 emitida por PAR CUATRO S.A a CABO DE HORNOS SPA por un monto total de 51.958</t>
+        </is>
+      </c>
+      <c r="V1169" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1169" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170" spans="1:23">
+      <c r="A1170" s="2">
+        <v>653</v>
+      </c>
+      <c r="B1170" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1170" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1170" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1170" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1170" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1170" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76593785-K CONTAMANAGER ASESORIAS SPA</t>
+        </is>
+      </c>
+      <c r="H1170" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1170" s="2">
+        <v>3065</v>
+      </c>
+      <c r="M1170" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1170" s="2" t="inlineStr">
+        <is>
+          <t>Factura Exenta</t>
+        </is>
+      </c>
+      <c r="P1170" s="2" t="inlineStr">
+        <is>
+          <t>77.686.859-0</t>
+        </is>
+      </c>
+      <c r="Q1170" s="2" t="inlineStr">
+        <is>
+          <t>CONTAMANAGER GESTION EMPRESAS LIMITADA</t>
+        </is>
+      </c>
+      <c r="R1170" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="S1170" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="T1170" s="2">
+        <v>3065</v>
+      </c>
+      <c r="U1170" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica Exenta #624 emitida por CONTAMANAGER GESTION EMPRESAS LIMITADA a CABO DE HORNOS SPA por un monto total de 1.024.502</t>
+        </is>
+      </c>
+      <c r="V1170" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1170" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171" spans="1:23">
+      <c r="A1171" s="2">
+        <v>654</v>
+      </c>
+      <c r="B1171" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1171" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1171" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1171" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1171" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1171" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 18537831-4 GUZMAN OSSANDON TERESA DE JESUS</t>
+        </is>
+      </c>
+      <c r="H1171" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1171" s="2">
+        <v>170821</v>
+      </c>
+      <c r="M1171" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1171" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios</t>
+        </is>
+      </c>
+      <c r="P1171" s="2" t="inlineStr">
+        <is>
+          <t>18.537.831-4</t>
+        </is>
+      </c>
+      <c r="Q1171" s="2" t="inlineStr">
+        <is>
+          <t>TERESA DE JESUS GUZMAN OSSANDO</t>
+        </is>
+      </c>
+      <c r="R1171" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="S1171" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="T1171" s="2">
+        <v>170821</v>
+      </c>
+      <c r="U1171" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios Electrónica #63 emitida por TERESA DE JESUS GUZMAN OSSANDO a  CABO DE HORNOS SPA por un monto total de 170.821</t>
+        </is>
+      </c>
+      <c r="V1171" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1171" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172" spans="1:23">
+      <c r="A1172" s="2">
+        <v>655</v>
+      </c>
+      <c r="B1172" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1172" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1172" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1172" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1172" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1172" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 18537831-4 GUZMAN OSSANDON TERESA DE JESUS</t>
+        </is>
+      </c>
+      <c r="H1172" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1172" s="2">
+        <v>474398</v>
+      </c>
+      <c r="M1172" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1172" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios</t>
+        </is>
+      </c>
+      <c r="P1172" s="2" t="inlineStr">
+        <is>
+          <t>18.537.831-4</t>
+        </is>
+      </c>
+      <c r="Q1172" s="2" t="inlineStr">
+        <is>
+          <t>TERESA DE JESUS GUZMAN OSSANDO</t>
+        </is>
+      </c>
+      <c r="R1172" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="S1172" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="T1172" s="2">
+        <v>474398</v>
+      </c>
+      <c r="U1172" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios Electrónica #62 emitida por TERESA DE JESUS GUZMAN OSSANDO a  CABO DE HORNOS SPA por un monto total de 474.398</t>
+        </is>
+      </c>
+      <c r="V1172" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1172" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173" spans="1:23">
+      <c r="A1173" s="2">
+        <v>656</v>
+      </c>
+      <c r="B1173" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1173" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1173" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1173" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1173" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1173" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 19639680-2 SANCHEZ BISQUERTT VALENTINA</t>
+        </is>
+      </c>
+      <c r="H1173" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="L1173" s="2">
+        <v>839039</v>
+      </c>
+      <c r="M1173" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1173" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios</t>
+        </is>
+      </c>
+      <c r="P1173" s="2" t="inlineStr">
+        <is>
+          <t>19.639.680-2</t>
+        </is>
+      </c>
+      <c r="Q1173" s="2" t="inlineStr">
+        <is>
+          <t>VALENTINA SANCHEZ BISQUERTT</t>
+        </is>
+      </c>
+      <c r="R1173" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="S1173" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="T1173" s="2">
+        <v>839039</v>
+      </c>
+      <c r="U1173" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios Electrónica #61 emitida por VALENTINA SANCHEZ BISQUERTT a  CABO DE HORNOS SPA por un monto total de 839.039</t>
+        </is>
+      </c>
+      <c r="V1173" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1173" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174" spans="1:23">
+      <c r="A1174" s="2">
+        <v>657</v>
+      </c>
+      <c r="B1174" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1174" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1174" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1174" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1174" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1174" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA BANCOESTADO A RUIZ SILVA CRISTIAN ERIC</t>
+        </is>
+      </c>
+      <c r="H1174" s="2" t="inlineStr">
+        <is>
+          <t>7078735</t>
+        </is>
+      </c>
+      <c r="L1174" s="2">
+        <v>105763</v>
+      </c>
+      <c r="M1174" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1174" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1174" s="2" t="inlineStr">
+        <is>
+          <t>93.737.000-8</t>
+        </is>
+      </c>
+      <c r="Q1174" s="2" t="inlineStr">
+        <is>
+          <t>GTD MANQUEHUE S.A.</t>
+        </is>
+      </c>
+      <c r="R1174" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="S1174" s="2" t="inlineStr">
+        <is>
+          <t>2369154</t>
+        </is>
+      </c>
+      <c r="T1174" s="2">
+        <v>105763</v>
+      </c>
+      <c r="U1174" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #2369154 emitida por GTD MANQUEHUE S.A. a CABO DE HORNOS SPA por un monto total de 105.763</t>
+        </is>
+      </c>
+      <c r="V1174" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1174" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175" spans="1:23">
+      <c r="A1175" s="2">
+        <v>658</v>
+      </c>
+      <c r="B1175" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1175" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1175" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1175" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1175" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1175" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA DE CUENTA 28970028937</t>
+        </is>
+      </c>
+      <c r="H1175" s="2" t="inlineStr">
+        <is>
+          <t>7088004</t>
+        </is>
+      </c>
+      <c r="I1175" s="2" t="inlineStr">
+        <is>
+          <t>0-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="K1175" s="2" t="inlineStr">
+        <is>
+          <t>BANCOESTADO 000000028970028937</t>
+        </is>
+      </c>
+      <c r="L1175" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1175" s="2">
+        <v>8872803</v>
+      </c>
+      <c r="O1175" s="2" t="inlineStr">
+        <is>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P1175" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1175" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1175" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1175" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="T1175" s="2">
+        <v>-21605</v>
+      </c>
+      <c r="U1175" s="2" t="inlineStr">
+        <is>
+          <t>Abono Transbank: Tarjetas de Crédito</t>
+        </is>
+      </c>
+      <c r="V1175" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1175" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176" spans="1:23">
+      <c r="O1176" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1176" s="2" t="inlineStr">
+        <is>
+          <t>12.463.879-8</t>
+        </is>
+      </c>
+      <c r="Q1176" s="2" t="inlineStr">
+        <is>
+          <t>JUAN ESPINOZA</t>
+        </is>
+      </c>
+      <c r="R1176" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="S1176" s="2" t="inlineStr">
+        <is>
+          <t>7793</t>
+        </is>
+      </c>
+      <c r="T1176" s="2">
+        <v>1242000</v>
+      </c>
+      <c r="U1176" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1176" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1176" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177" spans="1:23">
+      <c r="O1177" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1177" s="2" t="inlineStr">
+        <is>
+          <t>10.342.794-0</t>
+        </is>
+      </c>
+      <c r="Q1177" s="2" t="inlineStr">
+        <is>
+          <t>IRIS CALISTO</t>
+        </is>
+      </c>
+      <c r="R1177" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="S1177" s="2" t="inlineStr">
+        <is>
+          <t>7792</t>
+        </is>
+      </c>
+      <c r="T1177" s="2">
+        <v>70000</v>
+      </c>
+      <c r="U1177" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1177" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1177" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178" spans="1:23">
+      <c r="O1178" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1178" s="2" t="inlineStr">
+        <is>
+          <t>17.698.286-1</t>
+        </is>
+      </c>
+      <c r="Q1178" s="2" t="inlineStr">
+        <is>
+          <t>STEPHANO  GRAGE</t>
+        </is>
+      </c>
+      <c r="R1178" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="S1178" s="2" t="inlineStr">
+        <is>
+          <t>7794</t>
+        </is>
+      </c>
+      <c r="T1178" s="2">
+        <v>53000</v>
+      </c>
+      <c r="U1178" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1178" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1178" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179" spans="1:23">
+      <c r="O1179" s="2" t="inlineStr">
+        <is>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P1179" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1179" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1179" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1179" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="T1179" s="2">
+        <v>-356</v>
+      </c>
+      <c r="U1179" s="2" t="inlineStr">
+        <is>
+          <t>Abono Transbank: Tarjetas de Débito</t>
+        </is>
+      </c>
+      <c r="V1179" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1179" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180" spans="1:23">
+      <c r="O1180" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1180" s="2" t="inlineStr">
+        <is>
+          <t>17.713.167-9</t>
+        </is>
+      </c>
+      <c r="Q1180" s="2" t="inlineStr">
+        <is>
+          <t>SOFIA MONDACA</t>
+        </is>
+      </c>
+      <c r="R1180" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="S1180" s="2" t="inlineStr">
+        <is>
+          <t>7797</t>
+        </is>
+      </c>
+      <c r="T1180" s="2">
+        <v>53421</v>
+      </c>
+      <c r="U1180" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 47344385 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1180" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1180" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181" spans="1:23">
+      <c r="O1181" s="2" t="inlineStr">
+        <is>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P1181" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1181" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1181" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1181" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="T1181" s="2">
+        <v>-60918</v>
+      </c>
+      <c r="U1181" s="2" t="inlineStr">
+        <is>
+          <t>Abono Transbank: Tarjetas de Crédito</t>
+        </is>
+      </c>
+      <c r="V1181" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1181" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182" spans="1:23">
+      <c r="O1182" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1182" s="2" t="inlineStr">
+        <is>
+          <t>6.243.801-0</t>
+        </is>
+      </c>
+      <c r="Q1182" s="2" t="inlineStr">
+        <is>
+          <t>JAIME SILVA</t>
+        </is>
+      </c>
+      <c r="R1182" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="S1182" s="2" t="inlineStr">
+        <is>
+          <t>7796</t>
+        </is>
+      </c>
+      <c r="T1182" s="2">
+        <v>562000</v>
+      </c>
+      <c r="U1182" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1182" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1182" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183" spans="1:23">
+      <c r="O1183" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1183" s="2" t="inlineStr">
+        <is>
+          <t>12.647.440-7</t>
+        </is>
+      </c>
+      <c r="Q1183" s="2" t="inlineStr">
+        <is>
+          <t>LEONORA  PARIS</t>
+        </is>
+      </c>
+      <c r="R1183" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="S1183" s="2" t="inlineStr">
+        <is>
+          <t>7798</t>
+        </is>
+      </c>
+      <c r="T1183" s="2">
+        <v>150000</v>
+      </c>
+      <c r="U1183" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1183" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1183" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184" spans="1:23">
+      <c r="O1184" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1184" s="2" t="inlineStr">
+        <is>
+          <t>11.478.443-5</t>
+        </is>
+      </c>
+      <c r="Q1184" s="2" t="inlineStr">
+        <is>
+          <t>PASCAL  BITTELMAN</t>
+        </is>
+      </c>
+      <c r="R1184" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="S1184" s="2" t="inlineStr">
+        <is>
+          <t>7799</t>
+        </is>
+      </c>
+      <c r="T1184" s="2">
+        <v>3137000</v>
+      </c>
+      <c r="U1184" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1184" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1184" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185" spans="1:23">
+      <c r="O1185" s="2" t="inlineStr">
+        <is>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P1185" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1185" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1185" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1185" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="T1185" s="2">
+        <v>-3050</v>
+      </c>
+      <c r="U1185" s="2" t="inlineStr">
+        <is>
+          <t>Abono Transbank: Tarjetas de Débito</t>
+        </is>
+      </c>
+      <c r="V1185" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1185" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186" spans="1:23">
+      <c r="O1186" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1186" s="2" t="inlineStr">
+        <is>
+          <t>9.801.648-1</t>
+        </is>
+      </c>
+      <c r="Q1186" s="2" t="inlineStr">
+        <is>
+          <t>JENNY ARBUNIC</t>
+        </is>
+      </c>
+      <c r="R1186" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="S1186" s="2" t="inlineStr">
+        <is>
+          <t>7800</t>
+        </is>
+      </c>
+      <c r="T1186" s="2">
+        <v>125000</v>
+      </c>
+      <c r="U1186" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Débito con Transbank&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1186" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1186" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187" spans="1:23">
+      <c r="O1187" s="2" t="inlineStr">
+        <is>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P1187" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1187" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1187" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1187" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="T1187" s="2">
+        <v>-56689</v>
+      </c>
+      <c r="U1187" s="2" t="inlineStr">
+        <is>
+          <t>Abono Transbank: Tarjetas de Crédito</t>
+        </is>
+      </c>
+      <c r="V1187" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1187" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188" spans="1:23">
+      <c r="O1188" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1188" s="2" t="inlineStr">
+        <is>
+          <t>15.640.147-1</t>
+        </is>
+      </c>
+      <c r="Q1188" s="2" t="inlineStr">
+        <is>
+          <t>PAULA PEROTTI</t>
+        </is>
+      </c>
+      <c r="R1188" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="S1188" s="2" t="inlineStr">
+        <is>
+          <t>7801</t>
+        </is>
+      </c>
+      <c r="T1188" s="2">
+        <v>796000</v>
+      </c>
+      <c r="U1188" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 47344385 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1188" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1188" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189" spans="1:23">
+      <c r="O1189" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1189" s="2" t="inlineStr">
+        <is>
+          <t>13.036.712-7</t>
+        </is>
+      </c>
+      <c r="Q1189" s="2" t="inlineStr">
+        <is>
+          <t>MARTIN DUCCI</t>
+        </is>
+      </c>
+      <c r="R1189" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="S1189" s="2" t="inlineStr">
+        <is>
+          <t>7802</t>
+        </is>
+      </c>
+      <c r="T1189" s="2">
+        <v>2461000</v>
+      </c>
+      <c r="U1189" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1189" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1189" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190" spans="1:23">
+      <c r="O1190" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1190" s="2" t="inlineStr">
+        <is>
+          <t>8.114.354-4</t>
+        </is>
+      </c>
+      <c r="Q1190" s="2" t="inlineStr">
+        <is>
+          <t>CRISTIAN  GOLDBERG</t>
+        </is>
+      </c>
+      <c r="R1190" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="S1190" s="2" t="inlineStr">
+        <is>
+          <t>7805</t>
+        </is>
+      </c>
+      <c r="T1190" s="2">
+        <v>248000</v>
+      </c>
+      <c r="U1190" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1190" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1190" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191" spans="1:23">
+      <c r="O1191" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1191" s="2" t="inlineStr">
+        <is>
+          <t>17.084.997-3</t>
+        </is>
+      </c>
+      <c r="Q1191" s="2" t="inlineStr">
+        <is>
+          <t>ISIDORA DEL SOL</t>
+        </is>
+      </c>
+      <c r="R1191" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="S1191" s="2" t="inlineStr">
+        <is>
+          <t>7804</t>
+        </is>
+      </c>
+      <c r="T1191" s="2">
+        <v>118000</v>
+      </c>
+      <c r="U1191" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta Electrónica #7804 emitida por CABO DE HORNOS SPA a ISIDORA DEL SOL por un monto total de 118.000</t>
+        </is>
+      </c>
+      <c r="V1191" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1191" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192" spans="1:23">
+      <c r="A1192" s="2">
+        <v>659</v>
+      </c>
+      <c r="B1192" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1192" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1192" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1192" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1192" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1192" s="2" t="inlineStr">
+        <is>
+          <t>Transferencia otro banco a rut 16654655-9 acosta serrano carolina</t>
+        </is>
+      </c>
+      <c r="H1192" s="2" t="inlineStr">
+        <is>
+          <t>7011298</t>
+        </is>
+      </c>
+      <c r="I1192" s="2" t="inlineStr">
+        <is>
+          <t>16654655-9 Carolina Acosta Serrano</t>
+        </is>
+      </c>
+      <c r="J1192" s="2" t="inlineStr">
+        <is>
+          <t>Sueldo Octubre CAS</t>
+        </is>
+      </c>
+      <c r="K1192" s="2" t="inlineStr">
+        <is>
+          <t>BANCO BICE 22709836</t>
+        </is>
+      </c>
+      <c r="L1192" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="M1192" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1192" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos</t>
+        </is>
+      </c>
+      <c r="R1192" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="S1192" s="2" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="T1192" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="U1192" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos Nómina Remuneración Líquida de Personal</t>
+        </is>
+      </c>
+      <c r="V1192" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1192" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193" spans="1:23">
+      <c r="A1193" s="2">
+        <v>660</v>
+      </c>
+      <c r="B1193" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1193" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1193" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1193" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1193" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1193" s="2" t="inlineStr">
+        <is>
+          <t>Transferencia bancoestado a rodriguez jacobo sonia isabel</t>
+        </is>
+      </c>
+      <c r="H1193" s="2" t="inlineStr">
+        <is>
+          <t>7011316</t>
+        </is>
+      </c>
+      <c r="I1193" s="2" t="inlineStr">
+        <is>
+          <t>21990148-8 SONIA ISABEL RODRIGUEZ JACOBO</t>
+        </is>
+      </c>
+      <c r="J1193" s="2" t="inlineStr">
+        <is>
+          <t>Sueldo octubre VN</t>
+        </is>
+      </c>
+      <c r="K1193" s="2" t="inlineStr">
+        <is>
+          <t>BANCO DEL ESTADO DE CHILE 21990148</t>
+        </is>
+      </c>
+      <c r="L1193" s="2">
+        <v>100002</v>
+      </c>
+      <c r="M1193" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1193" s="2" t="inlineStr">
+        <is>
           <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194" spans="1:23">
+      <c r="A1194" s="2">
+        <v>661</v>
+      </c>
+      <c r="B1194" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1194" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1194" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1194" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1194" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1194" s="2" t="inlineStr">
+        <is>
+          <t>Transferencia otro banco a rut 26583888-k rodriguez gonzalez alexandra carolina</t>
+        </is>
+      </c>
+      <c r="H1194" s="2" t="inlineStr">
+        <is>
+          <t>7011305</t>
+        </is>
+      </c>
+      <c r="I1194" s="2" t="inlineStr">
+        <is>
+          <t>26583888-K Alexandra Rodrguez</t>
+        </is>
+      </c>
+      <c r="J1194" s="2" t="inlineStr">
+        <is>
+          <t>Sueldo Octubre AR</t>
+        </is>
+      </c>
+      <c r="K1194" s="2" t="inlineStr">
+        <is>
+          <t>SCOTIABANK CHILE 979404312</t>
+        </is>
+      </c>
+      <c r="L1194" s="2">
+        <v>1067345</v>
+      </c>
+      <c r="M1194" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1194" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos</t>
+        </is>
+      </c>
+      <c r="R1194" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="S1194" s="2" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="T1194" s="2">
+        <v>1067345</v>
+      </c>
+      <c r="U1194" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos Nómina Remuneración Líquida de Personal</t>
+        </is>
+      </c>
+      <c r="V1194" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1194" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195" spans="1:23">
+      <c r="A1195" s="2">
+        <v>662</v>
+      </c>
+      <c r="B1195" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1195" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1195" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1195" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1195" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1195" s="2" t="inlineStr">
+        <is>
+          <t>Transferencia otro banco a rut 26810639-1 mendez urdaneta rorick rafael</t>
+        </is>
+      </c>
+      <c r="H1195" s="2" t="inlineStr">
+        <is>
+          <t>7011301</t>
+        </is>
+      </c>
+      <c r="I1195" s="2" t="inlineStr">
+        <is>
+          <t>26810639-1 Rorick Mendez</t>
+        </is>
+      </c>
+      <c r="J1195" s="2" t="inlineStr">
+        <is>
+          <t>Sueldo octubre RM</t>
+        </is>
+      </c>
+      <c r="K1195" s="2" t="inlineStr">
+        <is>
+          <t>BANCO SANTANDER-CHILE 78384310</t>
+        </is>
+      </c>
+      <c r="L1195" s="2">
+        <v>1256874</v>
+      </c>
+      <c r="M1195" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1195" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos</t>
+        </is>
+      </c>
+      <c r="R1195" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="S1195" s="2" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="T1195" s="2">
+        <v>1256874</v>
+      </c>
+      <c r="U1195" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos Nómina Remuneración Líquida de Personal</t>
+        </is>
+      </c>
+      <c r="V1195" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1195" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196" spans="1:23">
+      <c r="A1196" s="2">
+        <v>663</v>
+      </c>
+      <c r="B1196" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1196" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1196" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1196" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1196" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1196" s="2" t="inlineStr">
+        <is>
+          <t>Transferencia otro banco a rut 11833297-0 donoso rodriguez andres</t>
+        </is>
+      </c>
+      <c r="H1196" s="2" t="inlineStr">
+        <is>
+          <t>7011302</t>
+        </is>
+      </c>
+      <c r="I1196" s="2" t="inlineStr">
+        <is>
+          <t>11833297-0 Andres Donoso R</t>
+        </is>
+      </c>
+      <c r="J1196" s="2" t="inlineStr">
+        <is>
+          <t>Sueldo octubre Adr</t>
+        </is>
+      </c>
+      <c r="K1196" s="2" t="inlineStr">
+        <is>
+          <t>BANCO FALABELLA 17370000932</t>
+        </is>
+      </c>
+      <c r="L1196" s="2">
+        <v>3522540</v>
+      </c>
+      <c r="M1196" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1196" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos</t>
+        </is>
+      </c>
+      <c r="R1196" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="S1196" s="2" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="T1196" s="2">
+        <v>3522540</v>
+      </c>
+      <c r="U1196" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos Nómina Remuneración Líquida de Personal</t>
+        </is>
+      </c>
+      <c r="V1196" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1196" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197" spans="1:23">
+      <c r="A1197" s="2">
+        <v>664</v>
+      </c>
+      <c r="B1197" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1197" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1197" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1197" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1197" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1197" s="2" t="inlineStr">
+        <is>
+          <t>Transferencia otro banco a rut 27115574-3 ibarra romero joamil jose</t>
+        </is>
+      </c>
+      <c r="H1197" s="2" t="inlineStr">
+        <is>
+          <t>7011303</t>
+        </is>
+      </c>
+      <c r="I1197" s="2" t="inlineStr">
+        <is>
+          <t>27115574-3 Joamil Jose Ibarra</t>
+        </is>
+      </c>
+      <c r="J1197" s="2" t="inlineStr">
+        <is>
+          <t>Sueldo Octubre JI</t>
+        </is>
+      </c>
+      <c r="K1197" s="2" t="inlineStr">
+        <is>
+          <t>BANCO DE CREDITO E INVERSIONES 63884488</t>
+        </is>
+      </c>
+      <c r="L1197" s="2">
+        <v>1291347</v>
+      </c>
+      <c r="M1197" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1197" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos</t>
+        </is>
+      </c>
+      <c r="R1197" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="S1197" s="2" t="inlineStr">
+        <is>
+          <t>202410</t>
+        </is>
+      </c>
+      <c r="T1197" s="2">
+        <v>1291347</v>
+      </c>
+      <c r="U1197" s="2" t="inlineStr">
+        <is>
+          <t>Sueldos Nómina Remuneración Líquida de Personal</t>
+        </is>
+      </c>
+      <c r="V1197" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="W1197" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198" spans="1:23">
+      <c r="A1198" s="2">
+        <v>665</v>
+      </c>
+      <c r="B1198" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1198" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1198" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1198" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="F1198" s="2" t="inlineStr">
+        <is>
+          <t>Stgo.principal</t>
+        </is>
+      </c>
+      <c r="G1198" s="2" t="inlineStr">
+        <is>
+          <t>Compra en compra niu sushi</t>
+        </is>
+      </c>
+      <c r="H1198" s="2" t="inlineStr">
+        <is>
+          <t>1157322</t>
+        </is>
+      </c>
+      <c r="L1198" s="2">
+        <v>23500</v>
+      </c>
+      <c r="M1198" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1198" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199" spans="1:23">
+      <c r="A1199" s="2">
+        <v>666</v>
+      </c>
+      <c r="B1199" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1199" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1199" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1199" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1199" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1199" s="2" t="inlineStr">
+        <is>
+          <t>PAC CREDITO CUOTA 8 DE 60</t>
+        </is>
+      </c>
+      <c r="H1199" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="L1199" s="2">
+        <v>863640</v>
+      </c>
+      <c r="M1199" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1199" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200" spans="1:23">
+      <c r="A1200" s="2">
+        <v>667</v>
+      </c>
+      <c r="B1200" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1200" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1200" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1200" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1200" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1200" s="2" t="inlineStr">
+        <is>
+          <t>PAC CREDITO CUOTA 8 DE 60</t>
+        </is>
+      </c>
+      <c r="H1200" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="L1200" s="2">
+        <v>965467</v>
+      </c>
+      <c r="M1200" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1200" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201" spans="1:23">
+      <c r="A1201" s="2">
+        <v>668</v>
+      </c>
+      <c r="B1201" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1201" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1201" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1201" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1201" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1201" s="2" t="inlineStr">
+        <is>
+          <t>PAC CREDITO CUOTA 8 DE 60</t>
+        </is>
+      </c>
+      <c r="H1201" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="L1201" s="2">
+        <v>373069</v>
+      </c>
+      <c r="M1201" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1201" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202" spans="1:23">
+      <c r="A1202" s="2">
+        <v>669</v>
+      </c>
+      <c r="B1202" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1202" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1202" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1202" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1202" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1202" s="2" t="inlineStr">
+        <is>
+          <t>PAC CREDITO CUOTA 8 DE 60</t>
+        </is>
+      </c>
+      <c r="H1202" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="L1202" s="2">
+        <v>250604</v>
+      </c>
+      <c r="M1202" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1202" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203" spans="1:23">
+      <c r="A1203" s="2">
+        <v>670</v>
+      </c>
+      <c r="B1203" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1203" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1203" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1203" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1203" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1203" s="2" t="inlineStr">
+        <is>
+          <t>PAC CREDITO CUOTA 8 DE 60</t>
+        </is>
+      </c>
+      <c r="H1203" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="L1203" s="2">
+        <v>220948</v>
+      </c>
+      <c r="M1203" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1203" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204" spans="1:23">
+      <c r="A1204" s="2">
+        <v>671</v>
+      </c>
+      <c r="B1204" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1204" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1204" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1204" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1204" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1204" s="2" t="inlineStr">
+        <is>
+          <t>PAC CREDITO CUOTA 8 DE 36</t>
+        </is>
+      </c>
+      <c r="H1204" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="L1204" s="2">
+        <v>126391</v>
+      </c>
+      <c r="M1204" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1204" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205" spans="1:23">
+      <c r="A1205" s="2">
+        <v>672</v>
+      </c>
+      <c r="B1205" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1205" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1205" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1205" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1205" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1205" s="2" t="inlineStr">
+        <is>
+          <t>COMPRA EN COMPRA ADMINISTRACI CL</t>
+        </is>
+      </c>
+      <c r="H1205" s="2" t="inlineStr">
+        <is>
+          <t>3647910</t>
+        </is>
+      </c>
+      <c r="L1205" s="2">
+        <v>71456</v>
+      </c>
+      <c r="M1205" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1205" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1205" s="2" t="inlineStr">
+        <is>
+          <t>88.473.200-K</t>
+        </is>
+      </c>
+      <c r="Q1205" s="2" t="inlineStr">
+        <is>
+          <t>ADMINISTRACION Y GESTION DE ESTACIONES D</t>
+        </is>
+      </c>
+      <c r="R1205" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1205" s="2" t="inlineStr">
+        <is>
+          <t>284014</t>
+        </is>
+      </c>
+      <c r="T1205" s="2">
+        <v>70456</v>
+      </c>
+      <c r="U1205" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #284014 emitida por ADMINISTRACION Y GESTION DE ESTACIONES D a CABO DE HORNOS SPA por un monto total de 70.456</t>
+        </is>
+      </c>
+      <c r="V1205" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1205" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206" spans="1:23">
+      <c r="O1206" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+      <c r="S1206" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:23">
+      <c r="A1207" s="2">
+        <v>673</v>
+      </c>
+      <c r="B1207" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1207" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1207" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1207" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1207" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1207" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO DE RUT 76489477-4 AND BEYOND CHILE SPA</t>
+        </is>
+      </c>
+      <c r="H1207" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="I1207" s="2" t="inlineStr">
+        <is>
+          <t>76489477-4 AND BEYOND CHILE SPA</t>
+        </is>
+      </c>
+      <c r="K1207" s="2" t="inlineStr">
+        <is>
+          <t>BANCO DE CHILE 000000008002757604</t>
+        </is>
+      </c>
+      <c r="L1207" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1207" s="2">
+        <v>1801214</v>
+      </c>
+      <c r="O1207" s="2" t="inlineStr">
+        <is>
+          <t>Factura de Venta</t>
+        </is>
+      </c>
+      <c r="P1207" s="2" t="inlineStr">
+        <is>
+          <t>76.489.477-4</t>
+        </is>
+      </c>
+      <c r="Q1207" s="2" t="inlineStr">
+        <is>
+          <t>AND BEYON VIRA VIRA</t>
+        </is>
+      </c>
+      <c r="R1207" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="S1207" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="T1207" s="2">
+        <v>1801214</v>
+      </c>
+      <c r="U1207" s="2" t="inlineStr">
+        <is>
+          <t>Factura Electrónica de Venta #1147 emitida por CABO DE HORNOS SPA a AND BEYON VIRA VIRA por un monto total de 5.160.934</t>
+        </is>
+      </c>
+      <c r="V1207" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1207" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208" spans="1:23">
+      <c r="A1208" s="2">
+        <v>674</v>
+      </c>
+      <c r="B1208" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1208" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1208" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1208" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1208" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1208" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="H1208" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="I1208" s="2" t="inlineStr">
+        <is>
+          <t>76275907-1 Cabo de Hornos S. P. A.</t>
+        </is>
+      </c>
+      <c r="J1208" s="2" t="inlineStr">
+        <is>
+          <t>AbonoCredConsor25mm</t>
+        </is>
+      </c>
+      <c r="K1208" s="2" t="inlineStr">
+        <is>
+          <t>BANCO CONSORCIO 4210026122</t>
+        </is>
+      </c>
+      <c r="L1208" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="M1208" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1208" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209" spans="1:23">
+      <c r="A1209" s="2">
+        <v>675</v>
+      </c>
+      <c r="B1209" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1209" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1209" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1209" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1209" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1209" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="H1209" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="I1209" s="2" t="inlineStr">
+        <is>
+          <t>76275907-1 Cabo de Hornos S. P. A.</t>
+        </is>
+      </c>
+      <c r="J1209" s="2" t="inlineStr">
+        <is>
+          <t>AbonoCredConsor25mm</t>
+        </is>
+      </c>
+      <c r="K1209" s="2" t="inlineStr">
+        <is>
+          <t>BANCO CONSORCIO 4210026122</t>
+        </is>
+      </c>
+      <c r="L1209" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="M1209" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1209" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210" spans="1:23">
+      <c r="A1210" s="2">
+        <v>676</v>
+      </c>
+      <c r="B1210" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1210" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1210" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1210" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1210" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1210" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="H1210" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="I1210" s="2" t="inlineStr">
+        <is>
+          <t>76275907-1 Cabo de Hornos S. P. A.</t>
+        </is>
+      </c>
+      <c r="J1210" s="2" t="inlineStr">
+        <is>
+          <t>AbonoCredConsor25mm</t>
+        </is>
+      </c>
+      <c r="K1210" s="2" t="inlineStr">
+        <is>
+          <t>BANCO CONSORCIO 4210026122</t>
+        </is>
+      </c>
+      <c r="L1210" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="M1210" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1210" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211" spans="1:23">
+      <c r="A1211" s="2">
+        <v>677</v>
+      </c>
+      <c r="B1211" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1211" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1211" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1211" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1211" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1211" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA DE CUENTA 28970028937</t>
+        </is>
+      </c>
+      <c r="H1211" s="2" t="inlineStr">
+        <is>
+          <t>7014298</t>
+        </is>
+      </c>
+      <c r="I1211" s="2" t="inlineStr">
+        <is>
+          <t>0-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="K1211" s="2" t="inlineStr">
+        <is>
+          <t>BANCOESTADO 000000028970028937</t>
+        </is>
+      </c>
+      <c r="L1211" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1211" s="2">
+        <v>2331900</v>
+      </c>
+      <c r="O1211" s="2" t="inlineStr">
+        <is>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P1211" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1211" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1211" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="S1211" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="T1211" s="2">
+        <v>-37500</v>
+      </c>
+      <c r="U1211" s="2" t="inlineStr">
+        <is>
+          <t>Abono Transbank: Tarjetas de Crédito</t>
+        </is>
+      </c>
+      <c r="V1211" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1211" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212" spans="1:23">
+      <c r="O1212" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1212" s="2" t="inlineStr">
+        <is>
+          <t>16.099.862-8</t>
+        </is>
+      </c>
+      <c r="Q1212" s="2" t="inlineStr">
+        <is>
+          <t>CRISTIAN GOLDBERG</t>
+        </is>
+      </c>
+      <c r="R1212" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="S1212" s="2" t="inlineStr">
+        <is>
+          <t>7806</t>
+        </is>
+      </c>
+      <c r="T1212" s="2">
+        <v>1873400</v>
+      </c>
+      <c r="U1212" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1212" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1212" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213" spans="1:23">
+      <c r="O1213" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1213" s="2" t="inlineStr">
+        <is>
+          <t>14.562.262-K</t>
+        </is>
+      </c>
+      <c r="Q1213" s="2" t="inlineStr">
+        <is>
+          <t>LEONARDO LOBOS</t>
+        </is>
+      </c>
+      <c r="R1213" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="S1213" s="2" t="inlineStr">
+        <is>
+          <t>7807</t>
+        </is>
+      </c>
+      <c r="T1213" s="2">
+        <v>496000</v>
+      </c>
+      <c r="U1213" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1213" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1213" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214" spans="1:23">
+      <c r="A1214" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1214" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1214" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1214" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1214" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1214" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1214" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO DE RUT 76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="H1214" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="I1214" s="2" t="inlineStr">
+        <is>
+          <t>76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="K1214" s="2" t="inlineStr">
+        <is>
+          <t>BANCO ITAU 390001000221032876</t>
+        </is>
+      </c>
+      <c r="L1214" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1214" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="O1214" s="2" t="inlineStr">
+        <is>
+          <t>Rendición</t>
+        </is>
+      </c>
+      <c r="P1214" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1214" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1214" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="S1214" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="T1214" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="U1214" s="2" t="inlineStr">
+        <is>
+          <t>Rendición emitida por CABO DE HORNOS SPA a CABO DE HORNOS SPA  por un monto total de 5.000.000</t>
+        </is>
+      </c>
+      <c r="V1214" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1214" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215" spans="1:23">
+      <c r="A1215" s="2">
+        <v>679</v>
+      </c>
+      <c r="B1215" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1215" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1215" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1215" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="F1215" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1215" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO DE RUT 76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="H1215" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="I1215" s="2" t="inlineStr">
+        <is>
+          <t>76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="K1215" s="2" t="inlineStr">
+        <is>
+          <t>BANCO ITAU 390001000221032876</t>
+        </is>
+      </c>
+      <c r="L1215" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1215" s="2">
+        <v>1990000</v>
+      </c>
+      <c r="O1215" s="2" t="inlineStr">
+        <is>
+          <t>Rendición</t>
+        </is>
+      </c>
+      <c r="P1215" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1215" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1215" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="S1215" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="T1215" s="2">
+        <v>1990000</v>
+      </c>
+      <c r="U1215" s="2" t="inlineStr">
+        <is>
+          <t>Rendición emitida por CABO DE HORNOS SPA a CABO DE HORNOS SPA  por un monto total de 1.990.000</t>
+        </is>
+      </c>
+      <c r="V1215" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1215" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216" spans="1:23">
+      <c r="A1216" s="2">
+        <v>680</v>
+      </c>
+      <c r="B1216" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1216" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1216" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1216" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="F1216" s="2" t="inlineStr">
+        <is>
+          <t>STGO. VITACURA</t>
+        </is>
+      </c>
+      <c r="G1216" s="2" t="inlineStr">
+        <is>
+          <t>TRASPASO DE FONDOS</t>
+        </is>
+      </c>
+      <c r="H1216" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L1216" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1216" s="2">
+        <v>996633</v>
+      </c>
+      <c r="O1216" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217" spans="1:23">
+      <c r="A1217" s="2">
+        <v>681</v>
+      </c>
+      <c r="B1217" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1217" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1217" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1217" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="F1217" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1217" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="H1217" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="I1217" s="2" t="inlineStr">
+        <is>
+          <t>76275907-1 Cabo de Hornos S. P. A.</t>
+        </is>
+      </c>
+      <c r="J1217" s="2" t="inlineStr">
+        <is>
+          <t>AbonoCredConsor25mm</t>
+        </is>
+      </c>
+      <c r="K1217" s="2" t="inlineStr">
+        <is>
+          <t>BANCO CONSORCIO 4210026122</t>
+        </is>
+      </c>
+      <c r="L1217" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="M1217" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1217" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218" spans="1:23">
+      <c r="A1218" s="2">
+        <v>682</v>
+      </c>
+      <c r="B1218" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1218" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1218" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1218" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="F1218" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1218" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA OTRO BANCO A RUT 76275907-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="H1218" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="I1218" s="2" t="inlineStr">
+        <is>
+          <t>76275907-1 Cabo de Hornos S. P. A.</t>
+        </is>
+      </c>
+      <c r="J1218" s="2" t="inlineStr">
+        <is>
+          <t>AbonoCredConsor25mm</t>
+        </is>
+      </c>
+      <c r="K1218" s="2" t="inlineStr">
+        <is>
+          <t>BANCO CONSORCIO 4210026122</t>
+        </is>
+      </c>
+      <c r="L1218" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="M1218" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1218" s="2" t="inlineStr">
+        <is>
+          <t>Sin Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219" spans="1:23">
+      <c r="A1219" s="2">
+        <v>683</v>
+      </c>
+      <c r="B1219" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1219" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1219" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1219" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="F1219" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1219" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA FONDOS INTERNET</t>
+        </is>
+      </c>
+      <c r="H1219" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="I1219" s="2" t="inlineStr">
+        <is>
+          <t>16654655-9 Carolina Acosta Serrano</t>
+        </is>
+      </c>
+      <c r="J1219" s="2" t="inlineStr">
+        <is>
+          <t>DevolPagoSueldoCJ</t>
+        </is>
+      </c>
+      <c r="K1219" s="2" t="inlineStr">
+        <is>
+          <t>BANCO BICE 22709836</t>
+        </is>
+      </c>
+      <c r="L1219" s="2">
+        <v>250000</v>
+      </c>
+      <c r="M1219" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1219" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios</t>
+        </is>
+      </c>
+      <c r="P1219" s="2" t="inlineStr">
+        <is>
+          <t>10.392.501-0</t>
+        </is>
+      </c>
+      <c r="Q1219" s="2" t="inlineStr">
+        <is>
+          <t>MARIA CECILIA JOTTAR AWAD</t>
+        </is>
+      </c>
+      <c r="R1219" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="S1219" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="T1219" s="2">
+        <v>250000</v>
+      </c>
+      <c r="U1219" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios Electrónica #44 emitida por MARIA CECILIA JOTTAR AWAD a  CABO DE HORNOS SPA por un monto total de 500.000</t>
+        </is>
+      </c>
+      <c r="V1219" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1219" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220" spans="1:23">
+      <c r="A1220" s="2">
+        <v>684</v>
+      </c>
+      <c r="B1220" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1220" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1220" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1220" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="F1220" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1220" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA FONDOS INTERNET</t>
+        </is>
+      </c>
+      <c r="H1220" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="I1220" s="2" t="inlineStr">
+        <is>
+          <t>10392501-0 Cecilia Jottar</t>
+        </is>
+      </c>
+      <c r="J1220" s="2" t="inlineStr">
+        <is>
+          <t>saldoBol44CJottar</t>
+        </is>
+      </c>
+      <c r="K1220" s="2" t="inlineStr">
+        <is>
+          <t>BANCO RIPLEY 4042507475</t>
+        </is>
+      </c>
+      <c r="L1220" s="2">
+        <v>50000</v>
+      </c>
+      <c r="M1220" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1220" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios</t>
+        </is>
+      </c>
+      <c r="P1220" s="2" t="inlineStr">
+        <is>
+          <t>10.392.501-0</t>
+        </is>
+      </c>
+      <c r="Q1220" s="2" t="inlineStr">
+        <is>
+          <t>MARIA CECILIA JOTTAR AWAD</t>
+        </is>
+      </c>
+      <c r="R1220" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="S1220" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="T1220" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U1220" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Honorarios Electrónica #44 emitida por MARIA CECILIA JOTTAR AWAD a  CABO DE HORNOS SPA por un monto total de 500.000</t>
+        </is>
+      </c>
+      <c r="V1220" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1220" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221" spans="1:23">
+      <c r="A1221" s="2">
+        <v>685</v>
+      </c>
+      <c r="B1221" s="2" t="inlineStr">
+        <is>
+          <t>Banco Estado</t>
+        </is>
+      </c>
+      <c r="C1221" s="2" t="inlineStr">
+        <is>
+          <t>00004449398</t>
+        </is>
+      </c>
+      <c r="D1221" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E1221" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="F1221" s="2" t="inlineStr">
+        <is>
+          <t>STGO.PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="G1221" s="2" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA FONDOS INTERNET</t>
+        </is>
+      </c>
+      <c r="H1221" s="2" t="inlineStr">
+        <is>
+          <t>7004001</t>
+        </is>
+      </c>
+      <c r="I1221" s="2" t="inlineStr">
+        <is>
+          <t>0-1 CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="K1221" s="2" t="inlineStr">
+        <is>
+          <t>BANCOESTADO 000000028970028937</t>
+        </is>
+      </c>
+      <c r="L1221" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1221" s="2">
+        <v>665300</v>
+      </c>
+      <c r="O1221" s="2" t="inlineStr">
+        <is>
+          <t>Gasto Anticipado</t>
+        </is>
+      </c>
+      <c r="P1221" s="2" t="inlineStr">
+        <is>
+          <t>76.275.907-1</t>
+        </is>
+      </c>
+      <c r="Q1221" s="2" t="inlineStr">
+        <is>
+          <t>CABO DE HORNOS SPA</t>
+        </is>
+      </c>
+      <c r="R1221" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="S1221" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="T1221" s="2">
+        <v>-10700</v>
+      </c>
+      <c r="U1221" s="2" t="inlineStr">
+        <is>
+          <t>Abono Transbank: Tarjetas de Crédito</t>
+        </is>
+      </c>
+      <c r="V1221" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1221" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222" spans="1:23">
+      <c r="O1222" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1222" s="2" t="inlineStr">
+        <is>
+          <t>7.040.325-0</t>
+        </is>
+      </c>
+      <c r="Q1222" s="2" t="inlineStr">
+        <is>
+          <t>ESPERANZA  CUETO</t>
+        </is>
+      </c>
+      <c r="R1222" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="S1222" s="2" t="inlineStr">
+        <is>
+          <t>7808</t>
+        </is>
+      </c>
+      <c r="T1222" s="2">
+        <v>396000</v>
+      </c>
+      <c r="U1222" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1222" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1222" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223" spans="1:23">
+      <c r="O1223" s="2" t="inlineStr">
+        <is>
+          <t>Boleta de Venta</t>
+        </is>
+      </c>
+      <c r="P1223" s="2" t="inlineStr">
+        <is>
+          <t>12.797.597-3</t>
+        </is>
+      </c>
+      <c r="Q1223" s="2" t="inlineStr">
+        <is>
+          <t>GRACIA DOMIC</t>
+        </is>
+      </c>
+      <c r="R1223" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="S1223" s="2" t="inlineStr">
+        <is>
+          <t>7809</t>
+        </is>
+      </c>
+      <c r="T1223" s="2">
+        <v>280000</v>
+      </c>
+      <c r="U1223" s="2" t="inlineStr">
+        <is>
+          <t>Pagada con Tarjetas de Crédito con Transbank, cuota 1 de 1&lt;br /&gt;Local: 30697596 - CABO DE HORNOS VITACURA</t>
+        </is>
+      </c>
+      <c r="V1223" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="W1223" s="2" t="inlineStr">
+        <is>
+          <t>finanzas@intec.cl</t>
         </is>
       </c>
     </row>
